--- a/data/hotels_by_city/Houston/Houston_shard_622.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_622.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="558">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55639-d247879-Reviews-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
   </si>
   <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Conroe-Hotels-Super-8-By-Wyndham-Cleveland-TX.h856044.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1564 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r531210655-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>55639</t>
+  </si>
+  <si>
+    <t>247879</t>
+  </si>
+  <si>
+    <t>531210655</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r530061849-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>530061849</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>No breakfast</t>
+  </si>
+  <si>
+    <t>Went to breakfast and they were out of everything,  they did not offer to restock so we went to McDonald's</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r522869711-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>522869711</t>
+  </si>
+  <si>
+    <t>09/09/2017</t>
+  </si>
+  <si>
+    <t>Their should be a law; and there is!</t>
+  </si>
+  <si>
+    <t>Harvey ran my wife and I out of our Home in Houston. Got to this property, and right away the rooms went up to $100.00 a night, we had to stay (3) days. Nothing to eat, and a really bad environment. I have never stayed at Super 8 and have been treated this way. Because of the price hike, some people could not afford it, and had leave, going out into the storm. I am righting a detailed complaint to the AG office in Texas, as well as to the Corp. This is not how we operate in America. There is much more, not enough room here to put it.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Harvey ran my wife and I out of our Home in Houston. Got to this property, and right away the rooms went up to $100.00 a night, we had to stay (3) days. Nothing to eat, and a really bad environment. I have never stayed at Super 8 and have been treated this way. Because of the price hike, some people could not afford it, and had leave, going out into the storm. I am righting a detailed complaint to the AG office in Texas, as well as to the Corp. This is not how we operate in America. There is much more, not enough room here to put it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r508148227-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>508148227</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Lazy staff</t>
+  </si>
+  <si>
+    <t>The staff on Friday check in was good but the weekend staff couldn't even sit behind the counter they were sprawled out in the lobby chairs and didn't even get up to check us out. Breakfast was so lacking we went elsewhere, there had apparently been a leak 2 room down and there was a massive noisy fan sitting in the hall to dry the carpet.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r505644257-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>505644257</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Never again at a super 8</t>
+  </si>
+  <si>
+    <t>Check in was confusing. We booked it on line and they could not find it. We had to fight to get extra towels since we went swimming. We even had to change in our towels for clean ones. I have never had to beg for extra towels. Front desk help was rude except for night shift on Saturday night. Waffles were watered down. Coffee was watered down. Hallway smelled. The outer doors of hotel you could go out however could not access the hotel by outer doors.  Hot tub was Luke warm. Not a hot tub</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r497261188-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>497261188</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r483921046-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>483921046</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>They will try to rip you off!</t>
+  </si>
+  <si>
+    <t>I checked in. The guy behind the desk swiped my card. Then proceeded to carbon copy it and have ne sign a BLANK statement. I called him on this and complained to super 8 HQ with no help. I am not stayin at ANY super 8 ever again!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r479000407-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>479000407</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r477470147-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>477470147</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r471978817-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>471978817</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Houston trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We used Cleveland for a short rest period before going on to Houston.  We used this Super 8 last time we went to Houston.  </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r466343871-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>466343871</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r456310077-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>456310077</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded February 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r426139052-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>426139052</t>
+  </si>
+  <si>
+    <t>10/08/2016</t>
+  </si>
+  <si>
+    <t>Absolutely the best service LMGunter</t>
+  </si>
+  <si>
+    <t>This was a really excellent experience, the best I've had at a motel.  The staff was courteous, helpful and very respectful.  They went above and way beyond what would be expected to be of assistance and all with a smile and a gracious attitude.  I wish everywhere one stayed was as good as this experience here was for me.  MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2016</t>
+  </si>
+  <si>
+    <t>This was a really excellent experience, the best I've had at a motel.  The staff was courteous, helpful and very respectful.  They went above and way beyond what would be expected to be of assistance and all with a smile and a gracious attitude.  I wish everywhere one stayed was as good as this experience here was for me.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r402621045-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>402621045</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r401427130-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>401427130</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>good stay</t>
+  </si>
+  <si>
+    <t>we always stay at this hotel because of our wyndham rewards.  It is clean, the owners/managers are always friendly and is closest to our children when we go to visit them.  Small complimentary breakfast in the morning.  Right next door to WalMar, but still quiet area.  MoreShow less</t>
+  </si>
+  <si>
+    <t>we always stay at this hotel because of our wyndham rewards.  It is clean, the owners/managers are always friendly and is closest to our children when we go to visit them.  Small complimentary breakfast in the morning.  Right next door to WalMar, but still quiet area.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r385380798-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>385380798</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean rooms, up to date!  </t>
+  </si>
+  <si>
+    <t>Very clean rooms microwave, coffee maker, refrigerator, desk.  Smoking rooms don't smell smoked in.  Bathrooms are clean and roomy! TVs are new.  Good place to stay! Located by a Wal Mart with a Schlotskyz restaurant in it.   I will stay here again definitely.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Very clean rooms microwave, coffee maker, refrigerator, desk.  Smoking rooms don't smell smoked in.  Bathrooms are clean and roomy! TVs are new.  Good place to stay! Located by a Wal Mart with a Schlotskyz restaurant in it.   I will stay here again definitely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r370278131-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>370278131</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>Running a scam out of here</t>
+  </si>
+  <si>
+    <t>They stole get 250.00 dollars off my credit card...said I smoked in a no/smoking room...I have never smoked in my life...having to get Federal consumer protection involved.....This must be stopped....not good for people to be ripped off....MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>They stole get 250.00 dollars off my credit card...said I smoked in a no/smoking room...I have never smoked in my life...having to get Federal consumer protection involved.....This must be stopped....not good for people to be ripped off....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r362556479-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>362556479</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r329112256-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>329112256</t>
+  </si>
+  <si>
+    <t>11/25/2015</t>
+  </si>
+  <si>
+    <t>Decent-needs more attention to details tho-like deep cleaning-especially the narcotics from behind the nightstand!</t>
+  </si>
+  <si>
+    <t>Safe, decent, economical, remodeled.....overall good. Just needs a good deep cleaning with attention to detail! I'm guessing the new paint probably covered any filth on the walls....but it's probably still there. (Reference pics) Good location-easy access-close to stores &amp; restaurants. LOVE that the TV is wall mounted! Pet Peeve: TVs screwed to a low piece of furniture, which you can't watch from bed unless sitting straight upMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Safe, decent, economical, remodeled.....overall good. Just needs a good deep cleaning with attention to detail! I'm guessing the new paint probably covered any filth on the walls....but it's probably still there. (Reference pics) Good location-easy access-close to stores &amp; restaurants. LOVE that the TV is wall mounted! Pet Peeve: TVs screwed to a low piece of furniture, which you can't watch from bed unless sitting straight upMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r317844678-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>317844678</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Unbeleivable !</t>
+  </si>
+  <si>
+    <t>This was bizarre from the moment I entered the building. I had prepaid for the reservation. At Check in he had me SIGN a physical BLANK Visa receipt for amenities and damage coverage. No. That's like signing a blank check.  He refused to check me in if I didn't sign it. That's not even LEGAL if I'm not mistaken.  The room was already paid for with no refund.  I reluctantly signed it with the agreement that I get it back voided after my stay.  Unbelievable ! !
+Then, the air conditioners are set to a minimum of 78 degrees in order for him to save money.  REALLY!  You don't make your guest sweat at night so you can save money.  You won't be making money when this gets out.
+Finally, when I checked out and asked for my blank VISA receipt he called me back to the room where he said, "Mr. Stone, can you please come here and may I have a word with you?  It seems we cannot locate ONE of your hand towels."
+SERIOUSLY ! ! ! Not only are you going to impede my check out but publicly humiliate me OVER A SINGLE RAG YOU DID NOT FIND!? 
+So I actually went into the room and helped him look for the SINGLE HAND TOWEL. He picked up the blanket and it fell out and he said, " Oh, here it is!"
+UNBELIEVABLE ! ! ! !...This was bizarre from the moment I entered the building. I had prepaid for the reservation. At Check in he had me SIGN a physical BLANK Visa receipt for amenities and damage coverage. No. That's like signing a blank check.  He refused to check me in if I didn't sign it. That's not even LEGAL if I'm not mistaken.  The room was already paid for with no refund.  I reluctantly signed it with the agreement that I get it back voided after my stay.  Unbelievable ! !Then, the air conditioners are set to a minimum of 78 degrees in order for him to save money.  REALLY!  You don't make your guest sweat at night so you can save money.  You won't be making money when this gets out.Finally, when I checked out and asked for my blank VISA receipt he called me back to the room where he said, "Mr. Stone, can you please come here and may I have a word with you?  It seems we cannot locate ONE of your hand towels."SERIOUSLY ! ! ! Not only are you going to impede my check out but publicly humiliate me OVER A SINGLE RAG YOU DID NOT FIND!? So I actually went into the room and helped him look for the SINGLE HAND TOWEL. He picked up the blanket and it fell out and he said, " Oh, here it is!"UNBELIEVABLE ! ! ! ! ! ! My girlfriend who was waiting in the car REFUSED to even believe me that this actually happened ! ! !  I can't believe it myself ! !NEVER UNTIL THIS PROPERTY IS COMPLETELY TORN DOWN AND RE-ESTABLISHED STAY AT THIS FACILITY ! ! ! !NEVER  NEVER  NEVER !  EVER !MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>This was bizarre from the moment I entered the building. I had prepaid for the reservation. At Check in he had me SIGN a physical BLANK Visa receipt for amenities and damage coverage. No. That's like signing a blank check.  He refused to check me in if I didn't sign it. That's not even LEGAL if I'm not mistaken.  The room was already paid for with no refund.  I reluctantly signed it with the agreement that I get it back voided after my stay.  Unbelievable ! !
+Then, the air conditioners are set to a minimum of 78 degrees in order for him to save money.  REALLY!  You don't make your guest sweat at night so you can save money.  You won't be making money when this gets out.
+Finally, when I checked out and asked for my blank VISA receipt he called me back to the room where he said, "Mr. Stone, can you please come here and may I have a word with you?  It seems we cannot locate ONE of your hand towels."
+SERIOUSLY ! ! ! Not only are you going to impede my check out but publicly humiliate me OVER A SINGLE RAG YOU DID NOT FIND!? 
+So I actually went into the room and helped him look for the SINGLE HAND TOWEL. He picked up the blanket and it fell out and he said, " Oh, here it is!"
+UNBELIEVABLE ! ! ! !...This was bizarre from the moment I entered the building. I had prepaid for the reservation. At Check in he had me SIGN a physical BLANK Visa receipt for amenities and damage coverage. No. That's like signing a blank check.  He refused to check me in if I didn't sign it. That's not even LEGAL if I'm not mistaken.  The room was already paid for with no refund.  I reluctantly signed it with the agreement that I get it back voided after my stay.  Unbelievable ! !Then, the air conditioners are set to a minimum of 78 degrees in order for him to save money.  REALLY!  You don't make your guest sweat at night so you can save money.  You won't be making money when this gets out.Finally, when I checked out and asked for my blank VISA receipt he called me back to the room where he said, "Mr. Stone, can you please come here and may I have a word with you?  It seems we cannot locate ONE of your hand towels."SERIOUSLY ! ! ! Not only are you going to impede my check out but publicly humiliate me OVER A SINGLE RAG YOU DID NOT FIND!? So I actually went into the room and helped him look for the SINGLE HAND TOWEL. He picked up the blanket and it fell out and he said, " Oh, here it is!"UNBELIEVABLE ! ! ! ! ! ! My girlfriend who was waiting in the car REFUSED to even believe me that this actually happened ! ! !  I can't believe it myself ! !NEVER UNTIL THIS PROPERTY IS COMPLETELY TORN DOWN AND RE-ESTABLISHED STAY AT THIS FACILITY ! ! ! !NEVER  NEVER  NEVER !  EVER !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r316734260-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>316734260</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r295471670-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>295471670</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Clean, comfortable and friendly</t>
+  </si>
+  <si>
+    <t>Room was large, clean, comfortable.  The Manager greeted us warmly at check-in, staff was very polite and friendly.  Breakfast area was very clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Room was large, clean, comfortable.  The Manager greeted us warmly at check-in, staff was very polite and friendly.  Breakfast area was very clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r292769061-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>292769061</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Great Manager</t>
+  </si>
+  <si>
+    <t>Neil, the manager was probably the best I've seen and I stay in hotels for work 16 days of every month.   Very friendly and when I was coming back with my bags he was leaving the room after propping my door open and starting the air to cooling.  I also watched him helping another lady later that day and he truly has a great personality and top notch customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil, the manager was probably the best I've seen and I stay in hotels for work 16 days of every month.   Very friendly and when I was coming back with my bags he was leaving the room after propping my door open and starting the air to cooling.  I also watched him helping another lady later that day and he truly has a great personality and top notch customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r287374183-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>287374183</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>great location</t>
+  </si>
+  <si>
+    <t>Great location, easy to find and surrounded by shopping and places to eat.  Desk clerk who checked me in was very friendly and helpful.  Room was clean, bed was comfortable and had great TV and cable. Only negative was sheets were a little thread bare but they were clean.  Would stay again if I am ever in the area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location, easy to find and surrounded by shopping and places to eat.  Desk clerk who checked me in was very friendly and helpful.  Room was clean, bed was comfortable and had great TV and cable. Only negative was sheets were a little thread bare but they were clean.  Would stay again if I am ever in the area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r272854990-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>272854990</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Accessibility Issues &amp; Poor Breakfast!</t>
+  </si>
+  <si>
+    <t>This particular facility does not provide the most basic of needs, a wheelchair friendly door. There is no automatic opener on any access door. The main entry opens out and is very hard for someone in a wheelchair to handle. One must roll up to reach the door handle. Then while rolling back far enough to allow the door to open, you encounter the access ramp area which is sloped down. Add to this problem handling a rolling suitcase and you are juggling keeping the door open with one hand, pulling your luggage with the other. That leaves no hands to either push a manual chair or operate the joystick on a motorized one. We arrived and left multple times and several of those times there was no one at the desk to even ask for assistance with the door. The 8 item breakfast was a joke. It consisted of one flavor of somewhat dry muffins, one waffle maker, bread with NO TOASTER, two flavors of dry cereal, two empty coffee erns, tempid milk, apple juice and VERY WATERED DOWN orange juice! The waffles were by far the best thing there so of course EVERYONE had to stand in line to use the one unit. As for the room, the bed was hard as a rock, sloppily made, the pillows had mismatched cases of different colors and it was literally 3 feet to the mattress top! One should not have...This particular facility does not provide the most basic of needs, a wheelchair friendly door. There is no automatic opener on any access door. The main entry opens out and is very hard for someone in a wheelchair to handle. One must roll up to reach the door handle. Then while rolling back far enough to allow the door to open, you encounter the access ramp area which is sloped down. Add to this problem handling a rolling suitcase and you are juggling keeping the door open with one hand, pulling your luggage with the other. That leaves no hands to either push a manual chair or operate the joystick on a motorized one. We arrived and left multple times and several of those times there was no one at the desk to even ask for assistance with the door. The 8 item breakfast was a joke. It consisted of one flavor of somewhat dry muffins, one waffle maker, bread with NO TOASTER, two flavors of dry cereal, two empty coffee erns, tempid milk, apple juice and VERY WATERED DOWN orange juice! The waffles were by far the best thing there so of course EVERYONE had to stand in line to use the one unit. As for the room, the bed was hard as a rock, sloppily made, the pillows had mismatched cases of different colors and it was literally 3 feet to the mattress top! One should not have to jump to get in to a bed! And another thing that was very aggrivating was that every time we left someone came in and turned the air conditioning COMPLETELY OFF! It took a half hour to cool the room enough to quit sweating. Texas is NOT the place to scrimp on the air to save a few cents on the electric bill! We paid for two nights but could not bring ourselves to spend another miserable night so we lost our money and left after the first day.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2015</t>
+  </si>
+  <si>
+    <t>This particular facility does not provide the most basic of needs, a wheelchair friendly door. There is no automatic opener on any access door. The main entry opens out and is very hard for someone in a wheelchair to handle. One must roll up to reach the door handle. Then while rolling back far enough to allow the door to open, you encounter the access ramp area which is sloped down. Add to this problem handling a rolling suitcase and you are juggling keeping the door open with one hand, pulling your luggage with the other. That leaves no hands to either push a manual chair or operate the joystick on a motorized one. We arrived and left multple times and several of those times there was no one at the desk to even ask for assistance with the door. The 8 item breakfast was a joke. It consisted of one flavor of somewhat dry muffins, one waffle maker, bread with NO TOASTER, two flavors of dry cereal, two empty coffee erns, tempid milk, apple juice and VERY WATERED DOWN orange juice! The waffles were by far the best thing there so of course EVERYONE had to stand in line to use the one unit. As for the room, the bed was hard as a rock, sloppily made, the pillows had mismatched cases of different colors and it was literally 3 feet to the mattress top! One should not have...This particular facility does not provide the most basic of needs, a wheelchair friendly door. There is no automatic opener on any access door. The main entry opens out and is very hard for someone in a wheelchair to handle. One must roll up to reach the door handle. Then while rolling back far enough to allow the door to open, you encounter the access ramp area which is sloped down. Add to this problem handling a rolling suitcase and you are juggling keeping the door open with one hand, pulling your luggage with the other. That leaves no hands to either push a manual chair or operate the joystick on a motorized one. We arrived and left multple times and several of those times there was no one at the desk to even ask for assistance with the door. The 8 item breakfast was a joke. It consisted of one flavor of somewhat dry muffins, one waffle maker, bread with NO TOASTER, two flavors of dry cereal, two empty coffee erns, tempid milk, apple juice and VERY WATERED DOWN orange juice! The waffles were by far the best thing there so of course EVERYONE had to stand in line to use the one unit. As for the room, the bed was hard as a rock, sloppily made, the pillows had mismatched cases of different colors and it was literally 3 feet to the mattress top! One should not have to jump to get in to a bed! And another thing that was very aggrivating was that every time we left someone came in and turned the air conditioning COMPLETELY OFF! It took a half hour to cool the room enough to quit sweating. Texas is NOT the place to scrimp on the air to save a few cents on the electric bill! We paid for two nights but could not bring ourselves to spend another miserable night so we lost our money and left after the first day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r266617060-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>266617060</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>Quite and comfortable</t>
+  </si>
+  <si>
+    <t>The manager made us feel very welcome and was able to accommodate our requests. He was more of a host that manager. The price is very competitive too. Parking is off the street so security seems very good. When our travels bring us back to the area this will be our choice for another stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>The manager made us feel very welcome and was able to accommodate our requests. He was more of a host that manager. The price is very competitive too. Parking is off the street so security seems very good. When our travels bring us back to the area this will be our choice for another stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r259463760-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>259463760</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>Suited me fine</t>
+  </si>
+  <si>
+    <t>Was looking for a place to stay while traveling not a destination.  Clean, accommodating, friendly, convenient to restaurants, Walmart, and Hwy 59.  Very reasonable price.   MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Was looking for a place to stay while traveling not a destination.  Clean, accommodating, friendly, convenient to restaurants, Walmart, and Hwy 59.  Very reasonable price.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r237853356-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>237853356</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>nothing noteworthy</t>
+  </si>
+  <si>
+    <t>Stopped here on the way to Brownsville.  Hotel staff was very friendly.  Did wonder why the owner had to park in the drive thru where incoming guests usually stop to check in.  The room was very nice.  However the toilet was not bolted to the floor on the left side making it very unstable.  It was very clean and allowed a good night's rest.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Neil S, Owner at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded February 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2015</t>
+  </si>
+  <si>
+    <t>Stopped here on the way to Brownsville.  Hotel staff was very friendly.  Did wonder why the owner had to park in the drive thru where incoming guests usually stop to check in.  The room was very nice.  However the toilet was not bolted to the floor on the left side making it very unstable.  It was very clean and allowed a good night's rest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r218070313-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>218070313</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Worst stay ever</t>
+  </si>
+  <si>
+    <t>Where do I start with this hotel...Let me start with the one and only positive thing..the desk clerk was super nice.  Now....we reserved a smoking room and so we knew it wouldn't smell extremely fresh...but the room smelled like it hadn't been cleaned in several months..the window does open so that was a plus. The bed was HORRIBLE...we turned the bedspread back and the sheets looked like they had not been changed from the last people who stayed there...the sheets were obviously dirty..there was a pubic hair on them..I called the front desk and she immediately came and changed them...the bedding in whole was in awful shape...sheets so thin they looked like cheese cloth...holes in everything...the carpet was so dirty that you didn't want to take your shoes off.  Luckily Walmart was next door. We bought Lysol and sprayed the room down. I understand that you get what you pay for as far as hotels go but that does not excuse a hotel not making sure the rooms are clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Where do I start with this hotel...Let me start with the one and only positive thing..the desk clerk was super nice.  Now....we reserved a smoking room and so we knew it wouldn't smell extremely fresh...but the room smelled like it hadn't been cleaned in several months..the window does open so that was a plus. The bed was HORRIBLE...we turned the bedspread back and the sheets looked like they had not been changed from the last people who stayed there...the sheets were obviously dirty..there was a pubic hair on them..I called the front desk and she immediately came and changed them...the bedding in whole was in awful shape...sheets so thin they looked like cheese cloth...holes in everything...the carpet was so dirty that you didn't want to take your shoes off.  Luckily Walmart was next door. We bought Lysol and sprayed the room down. I understand that you get what you pay for as far as hotels go but that does not excuse a hotel not making sure the rooms are clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r216079825-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>216079825</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>Very pleasant stay</t>
+  </si>
+  <si>
+    <t>I has a very pleasant stay everything at this place was perfect. The breakfast was great the location of the hotel is great too. I was in for a business trip and everything that I needed was nearby. I will be back here again on my next trip. MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded February 9, 2015</t>
+  </si>
+  <si>
+    <t>I has a very pleasant stay everything at this place was perfect. The breakfast was great the location of the hotel is great too. I was in for a business trip and everything that I needed was nearby. I will be back here again on my next trip. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r206156812-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>206156812</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r205062538-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>205062538</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r204832300-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>204832300</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r199760568-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>199760568</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded May 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r199569160-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>199569160</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r195019870-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>195019870</t>
+  </si>
+  <si>
+    <t>02/22/2014</t>
+  </si>
+  <si>
+    <t>Worth skipping</t>
+  </si>
+  <si>
+    <t>Stayed at this location one night.  Room had hair on the inside of bed spread.  Sheets had small holes in them.  The managers kids ran up and down the hall way making lots of noise.  Wish I had stayed some where else.MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded February 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2014</t>
+  </si>
+  <si>
+    <t>Stayed at this location one night.  Room had hair on the inside of bed spread.  Sheets had small holes in them.  The managers kids ran up and down the hall way making lots of noise.  Wish I had stayed some where else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r183684814-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>183684814</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>Nice for the location</t>
+  </si>
+  <si>
+    <t>This hotel is located in a central location within the city of Cleveland, TX. All of the restaurants are very accessible from this location, several of them within walking distance. Freeway access very close by. Our room was nice and the beds were comfortable. Not a huge room by any stretch of the imagination, but it works well. If I had to say something negative, it would be that it was the end of May in Texas, and there was no air in the hallways, they were quite warm.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>This hotel is located in a central location within the city of Cleveland, TX. All of the restaurants are very accessible from this location, several of them within walking distance. Freeway access very close by. Our room was nice and the beds were comfortable. Not a huge room by any stretch of the imagination, but it works well. If I had to say something negative, it would be that it was the end of May in Texas, and there was no air in the hallways, they were quite warm.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r181602781-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>181602781</t>
+  </si>
+  <si>
+    <t>10/19/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded October 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r180175913-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>180175913</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>Basic and clean</t>
+  </si>
+  <si>
+    <t>An overnight stop after the flight from London, clean and basic, friendly welcome with restaurants close by plus a large Walmart. Best restaurant was across the road, a Mexican food establishment.Motel was right next to the highway, so easy to find. There was a pool outdoors but we did not use it.MoreShow less</t>
+  </si>
+  <si>
+    <t>An overnight stop after the flight from London, clean and basic, friendly welcome with restaurants close by plus a large Walmart. Best restaurant was across the road, a Mexican food establishment.Motel was right next to the highway, so easy to find. There was a pool outdoors but we did not use it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r166999564-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>166999564</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>Great place that felt like home.</t>
+  </si>
+  <si>
+    <t>One of the best hotels I've ever stayed in. The people who worked there were very nice and helpful &amp; the roomrates were very reasonable. I've stayed in several hotels/motels over the years and none felt more like home than this one!! It was simply perfect. I would gladly stay there again MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded July 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2013</t>
+  </si>
+  <si>
+    <t>One of the best hotels I've ever stayed in. The people who worked there were very nice and helpful &amp; the roomrates were very reasonable. I've stayed in several hotels/motels over the years and none felt more like home than this one!! It was simply perfect. I would gladly stay there again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r162734420-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>162734420</t>
+  </si>
+  <si>
+    <t>06/02/2013</t>
+  </si>
+  <si>
+    <t>great location and clean</t>
+  </si>
+  <si>
+    <t>this is close to my family here in Cleveland, I booked on line and as soon as I walked in the front door, Neil said TINA PARKER for 4 nights? and I said yes your right. that impressed me well. Neil was awesome and Netta was too, I have never stayed in a motel with such friendly people. these guys are the best. it's walking distance to shopping and food not to mention a store close by. I booked for 4 nights and then needed another so all this was handle so quick I didn't even have a chance to think. these people are fast and honest and we have very much enjoyed our stay. if I needed any extra towels ect. they got them now thee was no waiting, and they make time to talk to there guest which was awesome, most places won't give you the time of day. and not to mention they give you all your privacy. thank you guys so.  tina parkerMoreShow less</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded June 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2013</t>
+  </si>
+  <si>
+    <t>this is close to my family here in Cleveland, I booked on line and as soon as I walked in the front door, Neil said TINA PARKER for 4 nights? and I said yes your right. that impressed me well. Neil was awesome and Netta was too, I have never stayed in a motel with such friendly people. these guys are the best. it's walking distance to shopping and food not to mention a store close by. I booked for 4 nights and then needed another so all this was handle so quick I didn't even have a chance to think. these people are fast and honest and we have very much enjoyed our stay. if I needed any extra towels ect. they got them now thee was no waiting, and they make time to talk to there guest which was awesome, most places won't give you the time of day. and not to mention they give you all your privacy. thank you guys so.  tina parkerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r156932492-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>156932492</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay, and the Manager is very friendly.</t>
+  </si>
+  <si>
+    <t>Very nice rooms, clean, roomy, modern.  Walked in and was able to get a room right away.  The Manager is very friendly.  Close to shopping and good food.  Would stay again when in the area. We had a king room and the bed was huge and very comfortable.  Would recommend to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded April 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2013</t>
+  </si>
+  <si>
+    <t>Very nice rooms, clean, roomy, modern.  Walked in and was able to get a room right away.  The Manager is very friendly.  Close to shopping and good food.  Would stay again when in the area. We had a king room and the bed was huge and very comfortable.  Would recommend to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r154351062-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>154351062</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Very Friendly Management and Staff</t>
+  </si>
+  <si>
+    <t>Gracious, friendly management and staff!  Stayed 2 nights and booked this hotel based on others reviews of how great the management was and it is true! Would certainly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded March 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2013</t>
+  </si>
+  <si>
+    <t>Gracious, friendly management and staff!  Stayed 2 nights and booked this hotel based on others reviews of how great the management was and it is true! Would certainly stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r153543308-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>153543308</t>
+  </si>
+  <si>
+    <t>03/02/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r150756138-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>150756138</t>
+  </si>
+  <si>
+    <t>01/27/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r145465971-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>145465971</t>
+  </si>
+  <si>
+    <t>11/15/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Neil S, Owner at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded November 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r145265418-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>145265418</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded November 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r144701916-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>144701916</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>relaxing stay at the Cleveland Super 8</t>
+  </si>
+  <si>
+    <t>Clean, reasonable price, great sleep. Easy on and off the route to south Texas. Internet service was a 4 1/2 out of 5. MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded November 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2012</t>
+  </si>
+  <si>
+    <t>Clean, reasonable price, great sleep. Easy on and off the route to south Texas. Internet service was a 4 1/2 out of 5. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r143767268-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>143767268</t>
+  </si>
+  <si>
+    <t>10/26/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Neil S, Owner at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded October 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r143474462-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>143474462</t>
+  </si>
+  <si>
+    <t>10/22/2012</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded October 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r142658212-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>142658212</t>
+  </si>
+  <si>
+    <t>10/12/2012</t>
+  </si>
+  <si>
+    <t>Neil S, Owner at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded October 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r141979864-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>141979864</t>
+  </si>
+  <si>
+    <t>10/04/2012</t>
+  </si>
+  <si>
+    <t>Super 8 Cleveland-Excellent Stay</t>
+  </si>
+  <si>
+    <t>Small to medium sized hotel, conveniently located close to Hwy 59 and the main road through Cleveland. Easy access to Sam Houston Nat'l Forest (which was our destination both days). REALLY courteous staff. Made extra efforts to ensure our comfort. Clean rooms, all ammenities were available, bed comfortable, and showers hot. The breakfast was good and as advertised.We were there during the week and it was quiet and peaceful.Compared to the other hotel offerings in the area (which we checked) we saved $30+.So if in Cleveland Tx and you need a hotel, this is the place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded October 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2012</t>
+  </si>
+  <si>
+    <t>Small to medium sized hotel, conveniently located close to Hwy 59 and the main road through Cleveland. Easy access to Sam Houston Nat'l Forest (which was our destination both days). REALLY courteous staff. Made extra efforts to ensure our comfort. Clean rooms, all ammenities were available, bed comfortable, and showers hot. The breakfast was good and as advertised.We were there during the week and it was quiet and peaceful.Compared to the other hotel offerings in the area (which we checked) we saved $30+.So if in Cleveland Tx and you need a hotel, this is the place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r140062725-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>140062725</t>
+  </si>
+  <si>
+    <t>09/12/2012</t>
+  </si>
+  <si>
+    <t>Very well kept</t>
+  </si>
+  <si>
+    <t>Easy on easy off truck parking close to many restraunts clean rooms great hospitality resonable rates pool good selecton at the breakfast bar lots of parking and a great rewards program people were great very warm reseption MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded September 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2012</t>
+  </si>
+  <si>
+    <t>Easy on easy off truck parking close to many restraunts clean rooms great hospitality resonable rates pool good selecton at the breakfast bar lots of parking and a great rewards program people were great very warm reseption More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r138873890-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>138873890</t>
+  </si>
+  <si>
+    <t>08/30/2012</t>
+  </si>
+  <si>
+    <t>WOW</t>
+  </si>
+  <si>
+    <t>Okay when we drove up we thought ok I guess...When we walked in we thought ok very clean...When we met the the people at check in we thought wow I like this place...When we went in the room we thought WOW!!!!!It was really a nice place I did not know supper 8Was that nice. It was clean, and well maintained, the bed was awesome!!! They had a good breakfast, a nIce lIttle pool.we had a felling of security or safety.I work out of town a lot and this stay changed where I'm looking to stay for now on... A lot of bang for the buck, thank you all at the Cleveland supper 8 it really is a nice place MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded August 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2012</t>
+  </si>
+  <si>
+    <t>Okay when we drove up we thought ok I guess...When we walked in we thought ok very clean...When we met the the people at check in we thought wow I like this place...When we went in the room we thought WOW!!!!!It was really a nice place I did not know supper 8Was that nice. It was clean, and well maintained, the bed was awesome!!! They had a good breakfast, a nIce lIttle pool.we had a felling of security or safety.I work out of town a lot and this stay changed where I'm looking to stay for now on... A lot of bang for the buck, thank you all at the Cleveland supper 8 it really is a nice place More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r136941042-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>136941042</t>
+  </si>
+  <si>
+    <t>08/11/2012</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Service was friendly and helpful.  The first floor room we had requested was available and close to the entrance. The room was very clean and all was in great condition. Owner took the time to talk and make me feel welcome. No surprises, a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Neil S, Owner at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded August 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2012</t>
+  </si>
+  <si>
+    <t>Service was friendly and helpful.  The first floor room we had requested was available and close to the entrance. The room was very clean and all was in great condition. Owner took the time to talk and make me feel welcome. No surprises, a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r136534584-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>136534584</t>
+  </si>
+  <si>
+    <t>08/07/2012</t>
+  </si>
+  <si>
+    <t>Really Surprised</t>
+  </si>
+  <si>
+    <t>Called from my iPhone and got a late night reservation as I was passing through Cleveland Texas.  Got a a really good deal from the desk clerk and he gave me very good directions as to how to get to the property.Most Super 8's I see are out door hallways, this one is all interior access.  It is in a well lit Walmart Shopping center with ample parking and additional 'big truck' parking in rear.Room was extremely well apportioned, the AC was turned on so there was a fresh cool greeting - not stuffy as if no air had been moving in the room since the staff cleaned.The room was VERY clean and teh Bath was the best shower I had in 6 days of traveling.Overall VERY surprising experience for this hotel chain.MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded August 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2012</t>
+  </si>
+  <si>
+    <t>Called from my iPhone and got a late night reservation as I was passing through Cleveland Texas.  Got a a really good deal from the desk clerk and he gave me very good directions as to how to get to the property.Most Super 8's I see are out door hallways, this one is all interior access.  It is in a well lit Walmart Shopping center with ample parking and additional 'big truck' parking in rear.Room was extremely well apportioned, the AC was turned on so there was a fresh cool greeting - not stuffy as if no air had been moving in the room since the staff cleaned.The room was VERY clean and teh Bath was the best shower I had in 6 days of traveling.Overall VERY surprising experience for this hotel chain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r136531042-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>136531042</t>
+  </si>
+  <si>
+    <t>Best Hotel In Texas !!!</t>
+  </si>
+  <si>
+    <t>I have stayed here for three weeks. I travel to Houston everyday. This hotel is like being at home.Everything is clean inside/out. I recieved clean towels everyday, bed made, trash removed, and the room smell like my house fresh and clean. They have great TV channels and WIFI. The pool is clean and refreshing. And the breakfast is the best also, they have a waffle maker and your waffle looks like the state of Texas, really neat ! The staff is very friendly and if you need anything just ask the General Manager Neil Solanki. This hotel is safe and its surroundings. I will definitly return to this hotel. This hotel is home to me and I can't wait to return. And the bed is like sleeping on a cloudy, really comfortable !MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I have stayed here for three weeks. I travel to Houston everyday. This hotel is like being at home.Everything is clean inside/out. I recieved clean towels everyday, bed made, trash removed, and the room smell like my house fresh and clean. They have great TV channels and WIFI. The pool is clean and refreshing. And the breakfast is the best also, they have a waffle maker and your waffle looks like the state of Texas, really neat ! The staff is very friendly and if you need anything just ask the General Manager Neil Solanki. This hotel is safe and its surroundings. I will definitly return to this hotel. This hotel is home to me and I can't wait to return. And the bed is like sleeping on a cloudy, really comfortable !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r134533084-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>134533084</t>
+  </si>
+  <si>
+    <t>07/16/2012</t>
+  </si>
+  <si>
+    <t>my stay at Cleveland</t>
+  </si>
+  <si>
+    <t>This is a great hotel and they have very friendly staff and great service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>This is a great hotel and they have very friendly staff and great service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r134206700-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>134206700</t>
+  </si>
+  <si>
+    <t>07/12/2012</t>
+  </si>
+  <si>
+    <t>Great weekend</t>
+  </si>
+  <si>
+    <t>This was a 4 day stay for us. I had a little reunion for 4 teenage girls (13 - 16) that were cousins but had never met.  They are my granddaughters. A little rowdy as teenagers will be but Neil and his sweet llittle wife were just great.  They were so patient and understanding with the girls. The girls had a great time.  Couldn't beat the price and thier breakfast choices were numerous. Rooms were clean and smelled good, service was impeccable. I highly recommend this hotel to anyone traveling.  A wonderful time was had by all.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>This was a 4 day stay for us. I had a little reunion for 4 teenage girls (13 - 16) that were cousins but had never met.  They are my granddaughters. A little rowdy as teenagers will be but Neil and his sweet llittle wife were just great.  They were so patient and understanding with the girls. The girls had a great time.  Couldn't beat the price and thier breakfast choices were numerous. Rooms were clean and smelled good, service was impeccable. I highly recommend this hotel to anyone traveling.  A wonderful time was had by all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r134096714-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>134096714</t>
+  </si>
+  <si>
+    <t>07/11/2012</t>
+  </si>
+  <si>
+    <t>Very Clean, Comfortable, and Quiet</t>
+  </si>
+  <si>
+    <t>Like I said clean, conformable and quiet.   What more could I want for an overnight stop on the road.   Oh free breakfast with a hot fresh waffle was pretty good too!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Like I said clean, conformable and quiet.   What more could I want for an overnight stop on the road.   Oh free breakfast with a hot fresh waffle was pretty good too!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r133540760-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>133540760</t>
+  </si>
+  <si>
+    <t>07/05/2012</t>
+  </si>
+  <si>
+    <t>This hotel is excellent!</t>
+  </si>
+  <si>
+    <t>This is a super clean, super friendly hotel. I would like to recommend other travelers to stay.The Wifi internet connection is excellent, too!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2012</t>
+  </si>
+  <si>
+    <t>This is a super clean, super friendly hotel. I would like to recommend other travelers to stay.The Wifi internet connection is excellent, too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r133202052-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>133202052</t>
+  </si>
+  <si>
+    <t>07/01/2012</t>
+  </si>
+  <si>
+    <t>Cleveland Super 8</t>
+  </si>
+  <si>
+    <t>The owner/managers go the extra mile to make your stay more pleasant and convenient.  The room was clean and everything worked.  The hotel is convenient located within walking distance of shopping and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2012</t>
+  </si>
+  <si>
+    <t>The owner/managers go the extra mile to make your stay more pleasant and convenient.  The room was clean and everything worked.  The hotel is convenient located within walking distance of shopping and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r133054515-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>133054515</t>
+  </si>
+  <si>
+    <t>06/29/2012</t>
+  </si>
+  <si>
+    <t>Wonderful place. I will cerainly go again. Charles</t>
+  </si>
+  <si>
+    <t>The staff were fantastic. Location, location, location, this one had it all. Best cable t.v. services of any place I have ever stayed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2012</t>
+  </si>
+  <si>
+    <t>The staff were fantastic. Location, location, location, this one had it all. Best cable t.v. services of any place I have ever stayed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r130513969-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>130513969</t>
+  </si>
+  <si>
+    <t>05/24/2012</t>
+  </si>
+  <si>
+    <t>Best Super8 so far</t>
+  </si>
+  <si>
+    <t>I've been at both Motel 6 and Super8's during my stay in the states. This Super8 is definitely the best one so far. Everything is clean, the rooms smell good and the service is top-notch. Couldn't be more pleased.MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded May 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2012</t>
+  </si>
+  <si>
+    <t>I've been at both Motel 6 and Super8's during my stay in the states. This Super8 is definitely the best one so far. Everything is clean, the rooms smell good and the service is top-notch. Couldn't be more pleased.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r130414698-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>130414698</t>
+  </si>
+  <si>
+    <t>05/22/2012</t>
+  </si>
+  <si>
+    <t>The staff at the Super 8 in Cleveland are very good people. They really take care of me with any requests that I may have during my stay. I travel and stay at this Super 8 usually every week. I can't say enough about the friendly staff. It's a pleasure to stay there and I will continue to bring them my business every time I'm in Cleveland.Sincerely,Ronald M ShallowMoreShow less</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded May 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2012</t>
+  </si>
+  <si>
+    <t>The staff at the Super 8 in Cleveland are very good people. They really take care of me with any requests that I may have during my stay. I travel and stay at this Super 8 usually every week. I can't say enough about the friendly staff. It's a pleasure to stay there and I will continue to bring them my business every time I'm in Cleveland.Sincerely,Ronald M ShallowMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r129341356-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>129341356</t>
+  </si>
+  <si>
+    <t>05/03/2012</t>
+  </si>
+  <si>
+    <t>Unbelievable Comfort and Service!</t>
+  </si>
+  <si>
+    <t>A Super 8 to be proud of visiting! What a pleasant surprise on the Quality of the rooms and Service. The rooms have been immaculately renovated to a very high standrad with all the amenities of the other more expenive franchised Hotels. This Motel is rated in the Top 2 for all Motel 8's and has a very high standard. They also are the only Motel, in the Cleveland area, that has Smoking Rooms. A plus for some! Enjoy the swimming pool and spa and the convinience of shopping at the adjacent Walmart and all the local restaurants. Even Taco bell is nearby... hahaha!All in all, a very high standard for Super 8 Hotel's and I highly recommend you consider your stay at this clean and respectable Motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded May 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2012</t>
+  </si>
+  <si>
+    <t>A Super 8 to be proud of visiting! What a pleasant surprise on the Quality of the rooms and Service. The rooms have been immaculately renovated to a very high standrad with all the amenities of the other more expenive franchised Hotels. This Motel is rated in the Top 2 for all Motel 8's and has a very high standard. They also are the only Motel, in the Cleveland area, that has Smoking Rooms. A plus for some! Enjoy the swimming pool and spa and the convinience of shopping at the adjacent Walmart and all the local restaurants. Even Taco bell is nearby... hahaha!All in all, a very high standard for Super 8 Hotel's and I highly recommend you consider your stay at this clean and respectable Motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r128464897-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>128464897</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>Clean and friendly</t>
+  </si>
+  <si>
+    <t>Nice Motel easy to get to right off I45. Plenty of places to eat nearby. Walmart next doorMoreShow less</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded April 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2012</t>
+  </si>
+  <si>
+    <t>Nice Motel easy to get to right off I45. Plenty of places to eat nearby. Walmart next doorMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r128305925-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>128305925</t>
+  </si>
+  <si>
+    <t>04/21/2012</t>
+  </si>
+  <si>
+    <t>My stay.</t>
+  </si>
+  <si>
+    <t>I had a good clean room. The people were vary friendly. I had a great time in Cleveland. The best part was that the Super 8 Cleveland was located close to several restaurants and shopping in Cleveland.MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded April 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2012</t>
+  </si>
+  <si>
+    <t>I had a good clean room. The people were vary friendly. I had a great time in Cleveland. The best part was that the Super 8 Cleveland was located close to several restaurants and shopping in Cleveland.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r128089069-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>128089069</t>
+  </si>
+  <si>
+    <t>04/17/2012</t>
+  </si>
+  <si>
+    <t>nice place to stay</t>
+  </si>
+  <si>
+    <t>Very friendly owners. We were even late for their breakfast and they still provided us with some muffins and bagels. Room was clean and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil S, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded April 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2012</t>
+  </si>
+  <si>
+    <t>Very friendly owners. We were even late for their breakfast and they still provided us with some muffins and bagels. Room was clean and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r127732655-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>127732655</t>
+  </si>
+  <si>
+    <t>04/12/2012</t>
+  </si>
+  <si>
+    <t>Excellent hotel, great staff.</t>
+  </si>
+  <si>
+    <t>As we are cycling across the country, we have stayed in different hotels for the past 35 days.   This hotel was one of the cleanest we have stayed in.  The owners of the hotel were so very friendly and accommodating.  Good location near restaurants and very affordable. We would recommend this hotel to any one without hesitation.MoreShow less</t>
+  </si>
+  <si>
+    <t>s8cleveland, General Manager at Super 8 by Wyndham Cleveland TX, responded to this reviewResponded April 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2012</t>
+  </si>
+  <si>
+    <t>As we are cycling across the country, we have stayed in different hotels for the past 35 days.   This hotel was one of the cleanest we have stayed in.  The owners of the hotel were so very friendly and accommodating.  Good location near restaurants and very affordable. We would recommend this hotel to any one without hesitation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r126710145-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>126710145</t>
+  </si>
+  <si>
+    <t>03/26/2012</t>
+  </si>
+  <si>
+    <t>Very good quality-price</t>
+  </si>
+  <si>
+    <t>Warm welcome, very confortable room, good breakfast, well located. Will stop there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Warm welcome, very confortable room, good breakfast, well located. Will stop there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r116676493-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>116676493</t>
+  </si>
+  <si>
+    <t>08/13/2011</t>
+  </si>
+  <si>
+    <t>This is one of my favorite places to stay....</t>
+  </si>
+  <si>
+    <t>This is hands down the cleanest places I've stayed in. The owners are super friendly. There is truck parking. Wal-Mart, and food close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>This is hands down the cleanest places I've stayed in. The owners are super friendly. There is truck parking. Wal-Mart, and food close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r68591489-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>68591489</t>
+  </si>
+  <si>
+    <t>06/24/2010</t>
+  </si>
+  <si>
+    <t>Made me feel like home</t>
+  </si>
+  <si>
+    <t>i really appreciated the way they tried to accomodate my early check in. They are nice people with the guest in mind...always.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>i really appreciated the way they tried to accomodate my early check in. They are nice people with the guest in mind...always.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r67650052-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>67650052</t>
+  </si>
+  <si>
+    <t>06/15/2010</t>
+  </si>
+  <si>
+    <t>overpriced, poor late-checkout policy</t>
+  </si>
+  <si>
+    <t>We stayed here midweek while checking out Big Thicket National Preserve. We found this hotel overpriced. It cost $72 plus tax double occupancy per night. That's $20 more per night than the Super 8 in New Orleans (which is fantastic, by the way).
+That's also $2 more per night than the Super 8 in Cedar City, Utah--on Memorial Day weekend. And for that price we had a Jacuzzi in a penthouse suite overlooking the mountains. Here, we had a ground-floor view of some dumpsters in a parking lot.
+Also, the check out policy was unusually stringent and it was not communicated clearly. The policy is get out by 11 am, no extensions, or you pay $20 extra per hour. True, this policy is written on the wall behind the front desk. But it’s tucked in a long list of unrelated things, and it's not in your line of sight. And no one tells you of this unusual policy when you check in. So if you are like us, you won’t see the sign and you will be rudely surprised. The front desk person should be verbally advising everyone upon check in of this policy.
+That said, the staff are friendly. And our room was clean, with modern furniture and fixtures. There was, however, black mold/mildew in the shower and there were major plumbing problems. The room came with a fridge and microwave, and they both worked well. The bed was...We stayed here midweek while checking out Big Thicket National Preserve. We found this hotel overpriced. It cost $72 plus tax double occupancy per night. That's $20 more per night than the Super 8 in New Orleans (which is fantastic, by the way).That's also $2 more per night than the Super 8 in Cedar City, Utah--on Memorial Day weekend. And for that price we had a Jacuzzi in a penthouse suite overlooking the mountains. Here, we had a ground-floor view of some dumpsters in a parking lot.Also, the check out policy was unusually stringent and it was not communicated clearly. The policy is get out by 11 am, no extensions, or you pay $20 extra per hour. True, this policy is written on the wall behind the front desk. But it’s tucked in a long list of unrelated things, and it's not in your line of sight. And no one tells you of this unusual policy when you check in. So if you are like us, you won’t see the sign and you will be rudely surprised. The front desk person should be verbally advising everyone upon check in of this policy.That said, the staff are friendly. And our room was clean, with modern furniture and fixtures. There was, however, black mold/mildew in the shower and there were major plumbing problems. The room came with a fridge and microwave, and they both worked well. The bed was very comfortable. And the room was quiet, except for noise in the hall.We would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>We stayed here midweek while checking out Big Thicket National Preserve. We found this hotel overpriced. It cost $72 plus tax double occupancy per night. That's $20 more per night than the Super 8 in New Orleans (which is fantastic, by the way).
+That's also $2 more per night than the Super 8 in Cedar City, Utah--on Memorial Day weekend. And for that price we had a Jacuzzi in a penthouse suite overlooking the mountains. Here, we had a ground-floor view of some dumpsters in a parking lot.
+Also, the check out policy was unusually stringent and it was not communicated clearly. The policy is get out by 11 am, no extensions, or you pay $20 extra per hour. True, this policy is written on the wall behind the front desk. But it’s tucked in a long list of unrelated things, and it's not in your line of sight. And no one tells you of this unusual policy when you check in. So if you are like us, you won’t see the sign and you will be rudely surprised. The front desk person should be verbally advising everyone upon check in of this policy.
+That said, the staff are friendly. And our room was clean, with modern furniture and fixtures. There was, however, black mold/mildew in the shower and there were major plumbing problems. The room came with a fridge and microwave, and they both worked well. The bed was...We stayed here midweek while checking out Big Thicket National Preserve. We found this hotel overpriced. It cost $72 plus tax double occupancy per night. That's $20 more per night than the Super 8 in New Orleans (which is fantastic, by the way).That's also $2 more per night than the Super 8 in Cedar City, Utah--on Memorial Day weekend. And for that price we had a Jacuzzi in a penthouse suite overlooking the mountains. Here, we had a ground-floor view of some dumpsters in a parking lot.Also, the check out policy was unusually stringent and it was not communicated clearly. The policy is get out by 11 am, no extensions, or you pay $20 extra per hour. True, this policy is written on the wall behind the front desk. But it’s tucked in a long list of unrelated things, and it's not in your line of sight. And no one tells you of this unusual policy when you check in. So if you are like us, you won’t see the sign and you will be rudely surprised. The front desk person should be verbally advising everyone upon check in of this policy.That said, the staff are friendly. And our room was clean, with modern furniture and fixtures. There was, however, black mold/mildew in the shower and there were major plumbing problems. The room came with a fridge and microwave, and they both worked well. The bed was very comfortable. And the room was quiet, except for noise in the hall.We would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r64438178-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>64438178</t>
+  </si>
+  <si>
+    <t>05/17/2010</t>
+  </si>
+  <si>
+    <t>Incredible service</t>
+  </si>
+  <si>
+    <t>We travel all across the country throughout the year and we must say that our stay at this Super 8 was, without a doubt, the best experience we have had.  My husband is a paraplegic and we travel with a great deal of equipment, clothing, medical supplies and such.  When we checked in, the owner of the facility came out and helped us unload ALL of our "stuff" and get it into the room.  That was a first. Not that we expect that kind of service, but it goes without saying it was very much appreciated.  The room itself was truly handicap accessible. Complete with roll-in-shower that was installed right!  The entire bathroom floor didn't get soaked when we used the shower.  The room was extremely clean and comfortable and it was quiet.  The bed was a little high but we carry a portable trapeze so transferring my husband into and out of the bed was not a problem.  We highly recommed the Super 8 in Cleveland to anyone handicapped or not.  Friendly, helpful......the next best thing to being at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>We travel all across the country throughout the year and we must say that our stay at this Super 8 was, without a doubt, the best experience we have had.  My husband is a paraplegic and we travel with a great deal of equipment, clothing, medical supplies and such.  When we checked in, the owner of the facility came out and helped us unload ALL of our "stuff" and get it into the room.  That was a first. Not that we expect that kind of service, but it goes without saying it was very much appreciated.  The room itself was truly handicap accessible. Complete with roll-in-shower that was installed right!  The entire bathroom floor didn't get soaked when we used the shower.  The room was extremely clean and comfortable and it was quiet.  The bed was a little high but we carry a portable trapeze so transferring my husband into and out of the bed was not a problem.  We highly recommed the Super 8 in Cleveland to anyone handicapped or not.  Friendly, helpful......the next best thing to being at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d247879-r30227860-Super_8_by_Wyndham_Cleveland_TX-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>30227860</t>
+  </si>
+  <si>
+    <t>05/18/2009</t>
+  </si>
+  <si>
+    <t>porter</t>
+  </si>
+  <si>
+    <t>the owener were every nice and help full.  they did a lot for us  that was not in everyday wayMoreShow less</t>
+  </si>
+  <si>
+    <t>the owener were every nice and help full.  they did a lot for us  that was not in everyday wayMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2099,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2131,5277 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>105</v>
+      </c>
+      <c r="X12" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>112</v>
+      </c>
+      <c r="X13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>119</v>
+      </c>
+      <c r="O14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>120</v>
+      </c>
+      <c r="X14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>127</v>
+      </c>
+      <c r="X15" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>127</v>
+      </c>
+      <c r="X16" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>127</v>
+      </c>
+      <c r="X17" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" t="s">
+        <v>146</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>127</v>
+      </c>
+      <c r="X18" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>127</v>
+      </c>
+      <c r="X19" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>158</v>
+      </c>
+      <c r="O20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>159</v>
+      </c>
+      <c r="X20" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" t="s">
+        <v>57</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>159</v>
+      </c>
+      <c r="X21" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>167</v>
+      </c>
+      <c r="O22" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>159</v>
+      </c>
+      <c r="X22" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" t="s">
+        <v>174</v>
+      </c>
+      <c r="K23" t="s">
+        <v>175</v>
+      </c>
+      <c r="L23" t="s">
+        <v>176</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>177</v>
+      </c>
+      <c r="O23" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>178</v>
+      </c>
+      <c r="X23" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s">
+        <v>185</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>177</v>
+      </c>
+      <c r="O24" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>178</v>
+      </c>
+      <c r="X24" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s">
+        <v>191</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>177</v>
+      </c>
+      <c r="O25" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>178</v>
+      </c>
+      <c r="X25" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26" t="s">
+        <v>197</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>198</v>
+      </c>
+      <c r="O26" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>199</v>
+      </c>
+      <c r="X26" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" t="s">
+        <v>204</v>
+      </c>
+      <c r="K27" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" t="s">
+        <v>206</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>207</v>
+      </c>
+      <c r="O27" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>208</v>
+      </c>
+      <c r="X27" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" t="s">
+        <v>214</v>
+      </c>
+      <c r="L28" t="s">
+        <v>215</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>216</v>
+      </c>
+      <c r="O28" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>208</v>
+      </c>
+      <c r="X28" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>219</v>
+      </c>
+      <c r="J29" t="s">
+        <v>220</v>
+      </c>
+      <c r="K29" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" t="s">
+        <v>222</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>224</v>
+      </c>
+      <c r="X29" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>228</v>
+      </c>
+      <c r="J30" t="s">
+        <v>229</v>
+      </c>
+      <c r="K30" t="s">
+        <v>230</v>
+      </c>
+      <c r="L30" t="s">
+        <v>231</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>232</v>
+      </c>
+      <c r="O30" t="s">
+        <v>57</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>224</v>
+      </c>
+      <c r="X30" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" t="s">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>239</v>
+      </c>
+      <c r="X31" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>242</v>
+      </c>
+      <c r="J32" t="s">
+        <v>243</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s">
+        <v>104</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>244</v>
+      </c>
+      <c r="O32" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>239</v>
+      </c>
+      <c r="X32" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>246</v>
+      </c>
+      <c r="J33" t="s">
+        <v>247</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s">
+        <v>104</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>244</v>
+      </c>
+      <c r="O33" t="s">
+        <v>81</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>239</v>
+      </c>
+      <c r="X33" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>248</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>249</v>
+      </c>
+      <c r="J34" t="s">
+        <v>250</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s">
+        <v>104</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>244</v>
+      </c>
+      <c r="O34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>251</v>
+      </c>
+      <c r="X34" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>254</v>
+      </c>
+      <c r="J35" t="s">
+        <v>255</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s">
+        <v>104</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>256</v>
+      </c>
+      <c r="O35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>257</v>
+      </c>
+      <c r="X35" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>260</v>
+      </c>
+      <c r="J36" t="s">
+        <v>261</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s">
+        <v>104</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O36" t="s">
+        <v>64</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>257</v>
+      </c>
+      <c r="X36" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J37" t="s">
+        <v>264</v>
+      </c>
+      <c r="K37" t="s">
+        <v>265</v>
+      </c>
+      <c r="L37" t="s">
+        <v>266</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>267</v>
+      </c>
+      <c r="X37" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>271</v>
+      </c>
+      <c r="J38" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" t="s">
+        <v>273</v>
+      </c>
+      <c r="L38" t="s">
+        <v>274</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>275</v>
+      </c>
+      <c r="O38" t="s">
+        <v>64</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>267</v>
+      </c>
+      <c r="X38" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>277</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>278</v>
+      </c>
+      <c r="J39" t="s">
+        <v>279</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s">
+        <v>104</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>280</v>
+      </c>
+      <c r="O39" t="s">
+        <v>81</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>281</v>
+      </c>
+      <c r="X39" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>283</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>284</v>
+      </c>
+      <c r="J40" t="s">
+        <v>285</v>
+      </c>
+      <c r="K40" t="s">
+        <v>286</v>
+      </c>
+      <c r="L40" t="s">
+        <v>287</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>280</v>
+      </c>
+      <c r="O40" t="s">
+        <v>57</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>281</v>
+      </c>
+      <c r="X40" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>289</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>290</v>
+      </c>
+      <c r="J41" t="s">
+        <v>291</v>
+      </c>
+      <c r="K41" t="s">
+        <v>292</v>
+      </c>
+      <c r="L41" t="s">
+        <v>293</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>294</v>
+      </c>
+      <c r="X41" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>297</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>298</v>
+      </c>
+      <c r="J42" t="s">
+        <v>299</v>
+      </c>
+      <c r="K42" t="s">
+        <v>300</v>
+      </c>
+      <c r="L42" t="s">
+        <v>301</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>275</v>
+      </c>
+      <c r="O42" t="s">
+        <v>64</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>302</v>
+      </c>
+      <c r="X42" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>305</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>306</v>
+      </c>
+      <c r="J43" t="s">
+        <v>307</v>
+      </c>
+      <c r="K43" t="s">
+        <v>308</v>
+      </c>
+      <c r="L43" t="s">
+        <v>309</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>310</v>
+      </c>
+      <c r="O43" t="s">
+        <v>57</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>311</v>
+      </c>
+      <c r="X43" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>314</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>315</v>
+      </c>
+      <c r="J44" t="s">
+        <v>316</v>
+      </c>
+      <c r="K44" t="s">
+        <v>317</v>
+      </c>
+      <c r="L44" t="s">
+        <v>318</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>319</v>
+      </c>
+      <c r="O44" t="s">
+        <v>320</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>321</v>
+      </c>
+      <c r="X44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>324</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>325</v>
+      </c>
+      <c r="J45" t="s">
+        <v>326</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s">
+        <v>104</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>327</v>
+      </c>
+      <c r="O45" t="s">
+        <v>57</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>321</v>
+      </c>
+      <c r="X45" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>328</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>329</v>
+      </c>
+      <c r="J46" t="s">
+        <v>330</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s">
+        <v>104</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>331</v>
+      </c>
+      <c r="O46" t="s">
+        <v>81</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>321</v>
+      </c>
+      <c r="X46" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>332</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>333</v>
+      </c>
+      <c r="J47" t="s">
+        <v>334</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s">
+        <v>104</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>335</v>
+      </c>
+      <c r="O47" t="s">
+        <v>51</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>336</v>
+      </c>
+      <c r="X47" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>338</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>339</v>
+      </c>
+      <c r="J48" t="s">
+        <v>340</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s">
+        <v>104</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>335</v>
+      </c>
+      <c r="O48" t="s">
+        <v>64</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>341</v>
+      </c>
+      <c r="X48" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>343</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>344</v>
+      </c>
+      <c r="J49" t="s">
+        <v>345</v>
+      </c>
+      <c r="K49" t="s">
+        <v>346</v>
+      </c>
+      <c r="L49" t="s">
+        <v>347</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>335</v>
+      </c>
+      <c r="O49" t="s">
+        <v>57</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>348</v>
+      </c>
+      <c r="X49" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>351</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>352</v>
+      </c>
+      <c r="J50" t="s">
+        <v>353</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s">
+        <v>104</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>354</v>
+      </c>
+      <c r="O50" t="s">
+        <v>81</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>355</v>
+      </c>
+      <c r="X50" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>357</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>358</v>
+      </c>
+      <c r="J51" t="s">
+        <v>359</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s">
+        <v>104</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>354</v>
+      </c>
+      <c r="O51" t="s">
+        <v>81</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>360</v>
+      </c>
+      <c r="X51" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>362</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>363</v>
+      </c>
+      <c r="J52" t="s">
+        <v>364</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s">
+        <v>104</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>354</v>
+      </c>
+      <c r="O52" t="s">
+        <v>81</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>365</v>
+      </c>
+      <c r="X52" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>367</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>368</v>
+      </c>
+      <c r="J53" t="s">
+        <v>369</v>
+      </c>
+      <c r="K53" t="s">
+        <v>370</v>
+      </c>
+      <c r="L53" t="s">
+        <v>371</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>354</v>
+      </c>
+      <c r="O53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>372</v>
+      </c>
+      <c r="X53" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>375</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>376</v>
+      </c>
+      <c r="J54" t="s">
+        <v>377</v>
+      </c>
+      <c r="K54" t="s">
+        <v>378</v>
+      </c>
+      <c r="L54" t="s">
+        <v>379</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>380</v>
+      </c>
+      <c r="X54" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>383</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>384</v>
+      </c>
+      <c r="J55" t="s">
+        <v>385</v>
+      </c>
+      <c r="K55" t="s">
+        <v>386</v>
+      </c>
+      <c r="L55" t="s">
+        <v>387</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>388</v>
+      </c>
+      <c r="X55" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>391</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>392</v>
+      </c>
+      <c r="J56" t="s">
+        <v>393</v>
+      </c>
+      <c r="K56" t="s">
+        <v>394</v>
+      </c>
+      <c r="L56" t="s">
+        <v>395</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>396</v>
+      </c>
+      <c r="O56" t="s">
+        <v>64</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>397</v>
+      </c>
+      <c r="X56" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>400</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>401</v>
+      </c>
+      <c r="J57" t="s">
+        <v>402</v>
+      </c>
+      <c r="K57" t="s">
+        <v>403</v>
+      </c>
+      <c r="L57" t="s">
+        <v>404</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>396</v>
+      </c>
+      <c r="O57" t="s">
+        <v>81</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>405</v>
+      </c>
+      <c r="X57" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>408</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>409</v>
+      </c>
+      <c r="J58" t="s">
+        <v>402</v>
+      </c>
+      <c r="K58" t="s">
+        <v>410</v>
+      </c>
+      <c r="L58" t="s">
+        <v>411</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>412</v>
+      </c>
+      <c r="O58" t="s">
+        <v>81</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>405</v>
+      </c>
+      <c r="X58" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>414</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>415</v>
+      </c>
+      <c r="J59" t="s">
+        <v>416</v>
+      </c>
+      <c r="K59" t="s">
+        <v>417</v>
+      </c>
+      <c r="L59" t="s">
+        <v>418</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>412</v>
+      </c>
+      <c r="O59" t="s">
+        <v>320</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>419</v>
+      </c>
+      <c r="X59" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>422</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>423</v>
+      </c>
+      <c r="J60" t="s">
+        <v>424</v>
+      </c>
+      <c r="K60" t="s">
+        <v>425</v>
+      </c>
+      <c r="L60" t="s">
+        <v>426</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>412</v>
+      </c>
+      <c r="O60" t="s">
+        <v>64</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>427</v>
+      </c>
+      <c r="X60" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>430</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>431</v>
+      </c>
+      <c r="J61" t="s">
+        <v>432</v>
+      </c>
+      <c r="K61" t="s">
+        <v>433</v>
+      </c>
+      <c r="L61" t="s">
+        <v>434</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>412</v>
+      </c>
+      <c r="O61" t="s">
+        <v>64</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>427</v>
+      </c>
+      <c r="X61" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>436</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>437</v>
+      </c>
+      <c r="J62" t="s">
+        <v>438</v>
+      </c>
+      <c r="K62" t="s">
+        <v>439</v>
+      </c>
+      <c r="L62" t="s">
+        <v>440</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>441</v>
+      </c>
+      <c r="O62" t="s">
+        <v>51</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>442</v>
+      </c>
+      <c r="X62" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>445</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>446</v>
+      </c>
+      <c r="J63" t="s">
+        <v>447</v>
+      </c>
+      <c r="K63" t="s">
+        <v>448</v>
+      </c>
+      <c r="L63" t="s">
+        <v>449</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>450</v>
+      </c>
+      <c r="O63" t="s">
+        <v>81</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>451</v>
+      </c>
+      <c r="X63" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>454</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>455</v>
+      </c>
+      <c r="J64" t="s">
+        <v>456</v>
+      </c>
+      <c r="K64" t="s">
+        <v>457</v>
+      </c>
+      <c r="L64" t="s">
+        <v>458</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>441</v>
+      </c>
+      <c r="O64" t="s">
+        <v>51</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>459</v>
+      </c>
+      <c r="X64" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>462</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>463</v>
+      </c>
+      <c r="J65" t="s">
+        <v>464</v>
+      </c>
+      <c r="K65" t="s">
+        <v>465</v>
+      </c>
+      <c r="L65" t="s">
+        <v>466</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>450</v>
+      </c>
+      <c r="O65" t="s">
+        <v>320</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>467</v>
+      </c>
+      <c r="X65" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>470</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>471</v>
+      </c>
+      <c r="J66" t="s">
+        <v>472</v>
+      </c>
+      <c r="K66" t="s">
+        <v>39</v>
+      </c>
+      <c r="L66" t="s">
+        <v>473</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>450</v>
+      </c>
+      <c r="O66" t="s">
+        <v>81</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>474</v>
+      </c>
+      <c r="X66" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>477</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>478</v>
+      </c>
+      <c r="J67" t="s">
+        <v>479</v>
+      </c>
+      <c r="K67" t="s">
+        <v>480</v>
+      </c>
+      <c r="L67" t="s">
+        <v>481</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>482</v>
+      </c>
+      <c r="O67" t="s">
+        <v>320</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>483</v>
+      </c>
+      <c r="X67" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>486</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>487</v>
+      </c>
+      <c r="J68" t="s">
+        <v>488</v>
+      </c>
+      <c r="K68" t="s">
+        <v>489</v>
+      </c>
+      <c r="L68" t="s">
+        <v>490</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>491</v>
+      </c>
+      <c r="X68" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>494</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>495</v>
+      </c>
+      <c r="J69" t="s">
+        <v>496</v>
+      </c>
+      <c r="K69" t="s">
+        <v>497</v>
+      </c>
+      <c r="L69" t="s">
+        <v>498</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>482</v>
+      </c>
+      <c r="O69" t="s">
+        <v>81</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>499</v>
+      </c>
+      <c r="X69" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>502</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>503</v>
+      </c>
+      <c r="J70" t="s">
+        <v>504</v>
+      </c>
+      <c r="K70" t="s">
+        <v>505</v>
+      </c>
+      <c r="L70" t="s">
+        <v>506</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>482</v>
+      </c>
+      <c r="O70" t="s">
+        <v>57</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>507</v>
+      </c>
+      <c r="X70" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>510</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>511</v>
+      </c>
+      <c r="J71" t="s">
+        <v>512</v>
+      </c>
+      <c r="K71" t="s">
+        <v>513</v>
+      </c>
+      <c r="L71" t="s">
+        <v>514</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>515</v>
+      </c>
+      <c r="X71" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>518</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>519</v>
+      </c>
+      <c r="J72" t="s">
+        <v>520</v>
+      </c>
+      <c r="K72" t="s">
+        <v>521</v>
+      </c>
+      <c r="L72" t="s">
+        <v>522</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>523</v>
+      </c>
+      <c r="O72" t="s">
+        <v>57</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>515</v>
+      </c>
+      <c r="X72" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>525</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>526</v>
+      </c>
+      <c r="J73" t="s">
+        <v>527</v>
+      </c>
+      <c r="K73" t="s">
+        <v>528</v>
+      </c>
+      <c r="L73" t="s">
+        <v>529</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>530</v>
+      </c>
+      <c r="O73" t="s">
+        <v>81</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>515</v>
+      </c>
+      <c r="X73" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>532</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>533</v>
+      </c>
+      <c r="J74" t="s">
+        <v>534</v>
+      </c>
+      <c r="K74" t="s">
+        <v>535</v>
+      </c>
+      <c r="L74" t="s">
+        <v>536</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>537</v>
+      </c>
+      <c r="O74" t="s">
+        <v>51</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>257</v>
+      </c>
+      <c r="X74" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>539</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>540</v>
+      </c>
+      <c r="J75" t="s">
+        <v>541</v>
+      </c>
+      <c r="K75" t="s">
+        <v>542</v>
+      </c>
+      <c r="L75" t="s">
+        <v>543</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>544</v>
+      </c>
+      <c r="O75" t="s">
+        <v>57</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>257</v>
+      </c>
+      <c r="X75" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>546</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>547</v>
+      </c>
+      <c r="J76" t="s">
+        <v>548</v>
+      </c>
+      <c r="K76" t="s">
+        <v>549</v>
+      </c>
+      <c r="L76" t="s">
+        <v>550</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>544</v>
+      </c>
+      <c r="O76" t="s">
+        <v>81</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>257</v>
+      </c>
+      <c r="X76" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37237</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>552</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>553</v>
+      </c>
+      <c r="J77" t="s">
+        <v>554</v>
+      </c>
+      <c r="K77" t="s">
+        <v>555</v>
+      </c>
+      <c r="L77" t="s">
+        <v>556</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>257</v>
+      </c>
+      <c r="X77" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
